--- a/DFS/Tracking.xlsx
+++ b/DFS/Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kpmgaust-my.sharepoint.com/personal/jhansen3_kpmg_com_au/Documents/Documents/Python/Gambling/DFS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC1048C4B1DC4D7C5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8D8BF96-F634-479F-BCED-9C5E7A2D8B40}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="11_F25DC773A252ABDACC1048C4B1DC4D7C5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C18838FE-2DD6-4539-8B36-A05D3969D266}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>Game</t>
   </si>
@@ -111,6 +111,123 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>Monday Slate</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Burrow</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>Mixon</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>Pickens</t>
+  </si>
+  <si>
+    <t>Amon</t>
+  </si>
+  <si>
+    <t>Dulcich</t>
+  </si>
+  <si>
+    <t>Jets</t>
+  </si>
+  <si>
+    <t>Barkley</t>
+  </si>
+  <si>
+    <t>Hurts</t>
+  </si>
+  <si>
+    <t>Etienne</t>
+  </si>
+  <si>
+    <t>Najee</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Freiermuth</t>
+  </si>
+  <si>
+    <t>Chiefs</t>
+  </si>
+  <si>
+    <t>Saq</t>
+  </si>
+  <si>
+    <t>Chargers Fins</t>
+  </si>
+  <si>
+    <t>Fins Chargers</t>
+  </si>
+  <si>
+    <t>Tyreek</t>
+  </si>
+  <si>
+    <t>Ekeler</t>
+  </si>
+  <si>
+    <t>Tua</t>
+  </si>
+  <si>
+    <t>Mike Williams</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Parham</t>
+  </si>
+  <si>
+    <t>Sherfield</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Pats Cards</t>
+  </si>
+  <si>
+    <t>Kyler</t>
+  </si>
+  <si>
+    <t>Stevenson</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Pats</t>
+  </si>
+  <si>
+    <t>Dortch</t>
+  </si>
+  <si>
+    <t>Jopkins</t>
+  </si>
+  <si>
+    <t>Parker</t>
   </si>
 </sst>
 </file>
@@ -203,6 +320,182 @@
         <a:xfrm>
           <a:off x="609600" y="182880"/>
           <a:ext cx="10650436" cy="8678486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>78168</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AC88FC-934C-462C-A5E5-A069C2DB9521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9622971"/>
+          <a:ext cx="14098968" cy="2057687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>125884</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>49224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56054576-43AF-4D6D-B404-D182E422C105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12028714"/>
+          <a:ext cx="14756284" cy="1714739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>372973</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>65124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856FD59B-B337-42D2-A7CB-F5EB597752F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14434457"/>
+          <a:ext cx="10736173" cy="8392696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>363532</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>112756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB3418F-BBA8-483C-83F3-80C23ADD555F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23502257"/>
+          <a:ext cx="11336332" cy="8440328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -477,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2A2B19-B99C-4F45-973A-7136DDE672C4}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,12 +787,21 @@
     <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -521,13 +823,44 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>60</v>
+      </c>
+      <c r="P3">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="Q3">
+        <f>P3-O3</f>
+        <v>13.099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>10.1</v>
+      </c>
+      <c r="D4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E4">
+        <v>2.58</v>
+      </c>
+      <c r="F4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>40.28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -550,18 +883,445 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>10.1</v>
+      </c>
+      <c r="D6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E6">
+        <v>2.58</v>
+      </c>
+      <c r="F6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>40.28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="D14">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E14">
+        <v>12.6</v>
+      </c>
+      <c r="F14">
+        <v>9.5</v>
+      </c>
+      <c r="G14">
+        <v>10.8</v>
+      </c>
+      <c r="H14">
+        <v>13.4</v>
+      </c>
+      <c r="I14">
+        <v>7.2</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>6.8</v>
+      </c>
+      <c r="L14">
+        <f>SUM(C14:K14)</f>
+        <v>118.16000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>30.38</v>
+      </c>
+      <c r="D16">
+        <v>3.2</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>13.4</v>
+      </c>
+      <c r="G16">
+        <v>13.8</v>
+      </c>
+      <c r="H16">
+        <v>0.6</v>
+      </c>
+      <c r="I16">
+        <v>12.3</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>6.8</v>
+      </c>
+      <c r="L16">
+        <v>108.48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>1355</v>
+      </c>
+      <c r="D18">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>24.1</v>
+      </c>
+      <c r="D24">
+        <v>24.4</v>
+      </c>
+      <c r="E24">
+        <v>12.6</v>
+      </c>
+      <c r="F24">
+        <v>26.6</v>
+      </c>
+      <c r="G24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>24.1</v>
+      </c>
+      <c r="D26">
+        <v>24.4</v>
+      </c>
+      <c r="E26">
+        <v>12.6</v>
+      </c>
+      <c r="F26">
+        <v>26.6</v>
+      </c>
+      <c r="G26">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H26">
+        <v>1.7</v>
+      </c>
+      <c r="I26">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="D29">
+        <v>36.549999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>0.66</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F34">
+        <v>7.4</v>
+      </c>
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>0.66</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>12.9</v>
+      </c>
+      <c r="F36">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>40.96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>22</v>
       </c>
     </row>
@@ -685,14 +1445,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9180F450-978A-40F7-83AE-FAF4AA8D9249}">
-  <dimension ref="A1"/>
+  <dimension ref="B51:B126"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A127" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
